--- a/tests/data/pump_example_duplicated_resources.xlsx
+++ b/tests/data/pump_example_duplicated_resources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikola/Repos/neat/tests/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndersAlbert\Projects\internal\neat\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97CEFAE-E688-0F4E-923B-F8723073BAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60573CE9-A793-41F6-B1E3-6056DA81E605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="32360" windowHeight="26460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="199">
   <si>
     <t>Definition of Nodes</t>
   </si>
@@ -429,15 +429,9 @@
     <t>Value Type</t>
   </si>
   <si>
-    <t>Nullable</t>
-  </si>
-  <si>
     <t>Immutable</t>
   </si>
   <si>
-    <t>Is List</t>
-  </si>
-  <si>
     <t>Default</t>
   </si>
   <si>
@@ -619,6 +613,15 @@
   </si>
   <si>
     <t>http://thisisneat.io/test</t>
+  </si>
+  <si>
+    <t>Min Count</t>
+  </si>
+  <si>
+    <t>Max Count</t>
+  </si>
+  <si>
+    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -1099,94 +1102,94 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B2" s="10" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+    <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B3" s="10" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+    <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B4" s="10" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+    <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="B4" s="10" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="10"/>
+    </row>
+    <row r="7" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="B7" s="10" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="B6" s="10"/>
-    </row>
-    <row r="7" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+    <row r="8" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>191</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>193</v>
       </c>
       <c r="B8" s="11">
         <v>45638.469733796293</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B9" s="11">
         <v>45638.469733796293</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>195</v>
-      </c>
-      <c r="B10" s="10"/>
-    </row>
-    <row r="11" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -1201,27 +1204,27 @@
   </sheetPr>
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="13" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="13" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="70" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>130</v>
       </c>
@@ -1241,7 +1244,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -1261,25 +1264,25 @@
         <v>133</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>11</v>
@@ -1291,123 +1294,123 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>25</v>
+        <v>140</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>25</v>
+        <v>140</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>25</v>
+      <c r="G5" s="5">
+        <v>0</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>25</v>
+        <v>141</v>
+      </c>
+      <c r="I5" s="5">
+        <v>100</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1425,103 +1428,105 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>25</v>
+        <v>140</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>140</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="6"/>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
       <c r="H9" s="6"/>
       <c r="I9" s="7" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
@@ -1530,48 +1535,48 @@
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>25</v>
+        <v>140</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1589,27 +1594,29 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="5" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -1618,281 +1625,281 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>25</v>
+      <c r="G13" s="5">
+        <v>0</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>25</v>
+        <v>140</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>25</v>
+      <c r="G15" s="5">
+        <v>0</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>25</v>
+      <c r="G16" s="5">
+        <v>0</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>25</v>
+        <v>175</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>25</v>
+        <v>178</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>25</v>
+        <v>178</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
+      </c>
+      <c r="I19" s="5">
+        <v>1</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1912,16 +1919,16 @@
       <selection pane="bottomLeft" activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="70" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="70" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1933,7 +1940,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -1959,7 +1966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1973,7 +1980,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1987,7 +1994,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -2004,7 +2011,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -2021,7 +2028,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -2038,7 +2045,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -2055,7 +2062,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -2072,7 +2079,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -2086,7 +2093,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -2100,7 +2107,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -2120,7 +2127,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -2137,7 +2144,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -2157,7 +2164,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -2177,7 +2184,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>72</v>
       </c>
@@ -2197,7 +2204,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -2214,7 +2221,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -2231,7 +2238,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -2245,7 +2252,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -2259,7 +2266,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -2273,7 +2280,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>89</v>
       </c>
@@ -2293,7 +2300,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>93</v>
       </c>
@@ -2313,7 +2320,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>97</v>
       </c>
@@ -2333,7 +2340,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>101</v>
       </c>
@@ -2353,7 +2360,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>105</v>
       </c>
@@ -2370,7 +2377,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>108</v>
       </c>
@@ -2384,7 +2391,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>111</v>
       </c>
@@ -2401,7 +2408,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>114</v>
       </c>
@@ -2412,7 +2419,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>116</v>
       </c>
@@ -2432,7 +2439,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>120</v>
       </c>
@@ -2449,7 +2456,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>123</v>
       </c>
@@ -2463,7 +2470,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -2480,7 +2487,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -2497,7 +2504,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -2517,7 +2524,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -2549,19 +2556,19 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2571,7 +2578,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2591,7 +2598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2602,7 +2609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2613,7 +2620,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2624,7 +2631,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2652,13 +2659,13 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="13" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2667,7 +2674,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2701,13 +2708,13 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="13" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2716,7 +2723,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
